--- a/Suma_horas.xlsx
+++ b/Suma_horas.xlsx
@@ -486,10 +486,10 @@
         <v>42644.99306712963</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44292.03574980324</v>
+        <v>44292.03638697917</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.2440831365740741</v>
+        <v>0.2447203125</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>-0.1366666666666667</v>
@@ -510,10 +510,10 @@
         <v>42644.99306712963</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44292.03574980324</v>
+        <v>44292.03638697917</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.2440831365740741</v>
+        <v>0.2447203125</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>-0.1366666666666667</v>
@@ -534,10 +534,10 @@
         <v>42644.99306712963</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44292.03574980324</v>
+        <v>44292.03638697917</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.2440831365740741</v>
+        <v>0.2447203125</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>-0.1366666666666667</v>
